--- a/src/main/resources/TestDataSheet.xlsx
+++ b/src/main/resources/TestDataSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Execution</t>
   </si>
@@ -104,6 +104,33 @@
   </si>
   <si>
     <t>$1,211.00</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>Validate the Thermostats details</t>
+  </si>
+  <si>
+    <t>Parts and Supplies ::: Thermostats ::: Thermostat Sensors</t>
+  </si>
+  <si>
+    <t>Thermostat Sensors | LennoxPROs.com</t>
+  </si>
+  <si>
+    <t>Shop the thermostat sensors you need from LennoxPros.com.</t>
+  </si>
+  <si>
+    <t>46M98</t>
+  </si>
+  <si>
+    <t>46M9801</t>
+  </si>
+  <si>
+    <t>$81.11</t>
   </si>
 </sst>
 </file>
@@ -489,7 +516,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -552,7 +579,7 @@
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="43.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -632,20 +659,46 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="5" customFormat="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="43.2">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:13" s="5" customFormat="1">
       <c r="A5" s="3"/>
@@ -724,15 +777,16 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>"Y, N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>